--- a/HR.Web/Content/ReportTemplates/hr_total_template.xlsx
+++ b/HR.Web/Content/ReportTemplates/hr_total_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Μ.Ο.</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Αξιολογητής</t>
+  </si>
+  <si>
+    <t>Πρόσληψη</t>
   </si>
 </sst>
 </file>
@@ -640,113 +643,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="50.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="23" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="16.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="8"/>
+    <col min="5" max="5" width="50.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="23" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14"/>
     </row>
-    <row r="2" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
